--- a/downloaded_files/MDPS217_Tutorial-35619.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35619.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Abd Allah Ehab Kamal Eldin Abd Elsalam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2250002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله نيكسون مصطفى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Nekson Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1220187</x:t>
@@ -299,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -978,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1010,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.5300445255</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1042,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45914.5300445255</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1074,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6696731134</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651393519</x:v>
+        <x:v>45907.6696731134</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.6651393519</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1202,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4261815625</x:v>
+        <x:v>45909.593430706</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1219,6 +1228,38 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45909.4261815625</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35619.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35619.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Abdelhamid Abdelmohsen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو عماد صبحى حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
   </x:si>
   <x:si>
     <x:t>1240198</x:t>
@@ -308,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1051,7 +1042,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.5300445255</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1074,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1106,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45907.6696731134</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1138,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6696731134</x:v>
+        <x:v>45907.6651393519</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1170,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651393519</x:v>
+        <x:v>45909.593430706</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1202,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45909.4261815625</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1228,38 +1219,6 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:20">
-      <x:c r="A19" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E19" s="3">
-        <x:v>45909.4261815625</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s"/>
-      <x:c r="G19" s="2" t="s"/>
-      <x:c r="H19" s="2" t="s"/>
-      <x:c r="I19" s="2" t="s"/>
-      <x:c r="J19" s="2" t="s"/>
-      <x:c r="K19" s="2" t="s"/>
-      <x:c r="L19" s="2" t="s"/>
-      <x:c r="M19" s="2" t="s"/>
-      <x:c r="N19" s="2" t="s"/>
-      <x:c r="O19" s="2" t="s"/>
-      <x:c r="P19" s="2" t="s"/>
-      <x:c r="Q19" s="2" t="s"/>
-      <x:c r="R19" s="2" t="s"/>
-      <x:c r="S19" s="2" t="s"/>
-      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35619.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35619.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t>Raghad Ahmed Mostafa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد شريف سامى محمد امين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ziad sherief sami</x:t>
   </x:si>
   <x:si>
     <x:t>1240194</x:t>
@@ -299,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -850,7 +841,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.4311826389</x:v>
+        <x:v>45912.5991975347</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -882,7 +873,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.5991975347</x:v>
+        <x:v>45907.72648125</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -914,7 +905,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.72648125</x:v>
+        <x:v>45908.4342210995</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -946,7 +937,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4342210995</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -978,7 +969,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1010,7 +1001,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1042,7 +1033,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1074,7 +1065,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45907.6696731134</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1097,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6696731134</x:v>
+        <x:v>45907.6651393519</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1129,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651393519</x:v>
+        <x:v>45909.593430706</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1161,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45909.4261815625</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1187,38 +1178,6 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:20">
-      <x:c r="A18" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E18" s="3">
-        <x:v>45909.4261815625</x:v>
-      </x:c>
-      <x:c r="F18" s="2" t="s"/>
-      <x:c r="G18" s="2" t="s"/>
-      <x:c r="H18" s="2" t="s"/>
-      <x:c r="I18" s="2" t="s"/>
-      <x:c r="J18" s="2" t="s"/>
-      <x:c r="K18" s="2" t="s"/>
-      <x:c r="L18" s="2" t="s"/>
-      <x:c r="M18" s="2" t="s"/>
-      <x:c r="N18" s="2" t="s"/>
-      <x:c r="O18" s="2" t="s"/>
-      <x:c r="P18" s="2" t="s"/>
-      <x:c r="Q18" s="2" t="s"/>
-      <x:c r="R18" s="2" t="s"/>
-      <x:c r="S18" s="2" t="s"/>
-      <x:c r="T18" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35619.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35619.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>Abu Bakr Atef Mahmoud Sayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد صلاح عبد الواحد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed salah Abdel wahed Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240032</x:t>
@@ -290,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -599,7 +590,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.520625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.380625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="38.950625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -713,7 +704,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6659939468</x:v>
+        <x:v>45907.666140625</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -745,7 +736,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.666140625</x:v>
+        <x:v>45907.6755541319</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -777,7 +768,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6755541319</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -809,7 +800,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45912.5991975347</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -841,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.5991975347</x:v>
+        <x:v>45907.72648125</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -873,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.72648125</x:v>
+        <x:v>45908.4342210995</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -905,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4342210995</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -937,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -969,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1001,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1033,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45907.6696731134</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1065,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6696731134</x:v>
+        <x:v>45907.6651393519</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1097,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651393519</x:v>
+        <x:v>45909.593430706</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1129,7 +1120,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45909.4261815625</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1146,38 +1137,6 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:20">
-      <x:c r="A17" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E17" s="3">
-        <x:v>45909.4261815625</x:v>
-      </x:c>
-      <x:c r="F17" s="2" t="s"/>
-      <x:c r="G17" s="2" t="s"/>
-      <x:c r="H17" s="2" t="s"/>
-      <x:c r="I17" s="2" t="s"/>
-      <x:c r="J17" s="2" t="s"/>
-      <x:c r="K17" s="2" t="s"/>
-      <x:c r="L17" s="2" t="s"/>
-      <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="2" t="s"/>
-      <x:c r="O17" s="2" t="s"/>
-      <x:c r="P17" s="2" t="s"/>
-      <x:c r="Q17" s="2" t="s"/>
-      <x:c r="R17" s="2" t="s"/>
-      <x:c r="S17" s="2" t="s"/>
-      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35619.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35619.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Yousef Adel Anwar Ahmed Abdel-jaber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عادل محمد حمزاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hamzawi</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -281,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1137,6 +1146,38 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45926.4591123032</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35619.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35619.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,6 +105,15 @@
     <x:t>Abdallah Nekson Mostafa</x:t>
   </x:si>
   <x:si>
+    <x:t>1240111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar mohamed salaheldeen</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220187</x:t>
   </x:si>
   <x:si>
@@ -132,6 +141,15 @@
     <x:t>Farid Ramez Hosny Ghazal</x:t>
   </x:si>
   <x:si>
+    <x:t>1240259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد السيد محمد هارون</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHAMED ELSAYED MOHAMED HAROUN</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240184</x:t>
   </x:si>
   <x:si>
@@ -148,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Karim Mohamed Ahmed Zayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنداوي محمد هنداوي درويش</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hendawy Mohamed Hendawy Darwish</x:t>
   </x:si>
   <x:si>
     <x:t>1240172</x:t>
@@ -290,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -937,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45927.497705706</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -969,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1001,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1033,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6696731134</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1065,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6651393519</x:v>
+        <x:v>45927.4826675926</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1097,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.6696731134</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1129,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4261815625</x:v>
+        <x:v>45927.6668926736</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1161,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45926.4591123032</x:v>
+        <x:v>45927.4604842245</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1178,6 +1205,102 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45909.4261815625</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45926.4591123032</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35619.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35619.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Abdallah Nekson Mostafa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1220187</x:t>
@@ -317,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -964,7 +955,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.497705706</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45927.4826675926</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4826675926</x:v>
+        <x:v>45907.6696731134</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6696731134</x:v>
+        <x:v>45927.6668926736</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.6668926736</x:v>
+        <x:v>45927.4604842245</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4604842245</x:v>
+        <x:v>45909.593430706</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45909.4261815625</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1243,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4261815625</x:v>
+        <x:v>45926.4591123032</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1269,38 +1260,6 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45926.4591123032</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35619.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35619.xlsx
@@ -1115,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.6668926736</x:v>
+        <x:v>45928.2687730324</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>

--- a/downloaded_files/MDPS217_Tutorial-35619.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35619.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Yousef Adel Anwar Ahmed Abdel-jaber</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عادل محمد حمزاوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hamzawi</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -308,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1115,7 +1106,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45928.2687730324</x:v>
+        <x:v>45929.4464447569</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,38 +1219,6 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:20">
-      <x:c r="A19" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E19" s="3">
-        <x:v>45926.4591123032</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s"/>
-      <x:c r="G19" s="2" t="s"/>
-      <x:c r="H19" s="2" t="s"/>
-      <x:c r="I19" s="2" t="s"/>
-      <x:c r="J19" s="2" t="s"/>
-      <x:c r="K19" s="2" t="s"/>
-      <x:c r="L19" s="2" t="s"/>
-      <x:c r="M19" s="2" t="s"/>
-      <x:c r="N19" s="2" t="s"/>
-      <x:c r="O19" s="2" t="s"/>
-      <x:c r="P19" s="2" t="s"/>
-      <x:c r="Q19" s="2" t="s"/>
-      <x:c r="R19" s="2" t="s"/>
-      <x:c r="S19" s="2" t="s"/>
-      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35619.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35619.xlsx
@@ -1225,11 +1225,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14503]14503-50-الجيزة الرئيسي Time : Tuesday(14:18)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14402] صالة ميكانيكا ب-120-الجيزة الرئيسي Time : Tuesday(14:18)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14503]14503-50-الجيزة الرئيسي Time : Tuesday(14:18)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14402] صالة ميكانيكا ب-120-الجيزة الرئيسي Time : Tuesday(14:18)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14503]14503-50-الجيزة الرئيسي Time : Tuesday(14:18)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14402] صالة ميكانيكا ب-120-الجيزة الرئيسي Time : Tuesday(14:18)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/MDPS217_Tutorial-35619.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35619.xlsx
@@ -72,7 +72,7 @@
     <x:t>1240194</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">زياد عمر احمد عمر </x:t>
+    <x:t>زياد عمر احمد عمر محمود السيد</x:t>
   </x:si>
   <x:si>
     <x:t>ZEYAD OMAR AHMED OMAR</x:t>
